--- a/src/com/syntax/class35/Test.xlsx
+++ b/src/com/syntax/class35/Test.xlsx
@@ -1,25 +1,90 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <workbookPr/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asghar Nazir\IdeaProjects\JavaBatch8\src\com\syntax\class35\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB52C9F-7D87-44B0-A68F-1D1D4ED6620C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="41595" yWindow="2535" windowWidth="17280" windowHeight="8970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="FirstPage" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Hobby</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>Domenech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Being beaten by wife all the time </t>
+  </si>
+  <si>
+    <t>Sabeen</t>
+  </si>
+  <si>
+    <t>Sadiq</t>
+  </si>
+  <si>
+    <t>to chase husband</t>
+  </si>
+  <si>
+    <t>Brayan</t>
+  </si>
+  <si>
+    <t>galarza</t>
+  </si>
+  <si>
+    <t>Gamer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asghar </t>
+  </si>
+  <si>
+    <t>Nazir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programming </t>
+  </si>
+  <si>
+    <t>Kerim</t>
+  </si>
+  <si>
+    <t>Mahmut</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,12 +395,111 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="15.33203125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="15.109375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="42.5546875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="29.33203125" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12EE4578-8D9F-401E-A8EE-BA16FE291AEE}">
+  <dimension ref="C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F22EEE2-13E1-4B11-B9DD-636B74903C83}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/com/syntax/class35/Test.xlsx
+++ b/src/com/syntax/class35/Test.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asghar Nazir\IdeaProjects\JavaBatch8\src\com\syntax\class35\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB52C9F-7D87-44B0-A68F-1D1D4ED6620C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E74316-6E61-478D-91BE-72BF26E2BCDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41595" yWindow="2535" windowWidth="17280" windowHeight="8970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41595" yWindow="3915" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FirstPage" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -74,17 +74,16 @@
     <t xml:space="preserve">Programming </t>
   </si>
   <si>
-    <t>Kerim</t>
-  </si>
-  <si>
     <t>Mahmut</t>
+  </si>
+  <si>
+    <t>Age</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -398,16 +397,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.33203125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="15.109375" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="42.5546875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="29.33203125" collapsed="false"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -420,8 +419,8 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="b">
-        <v>1</v>
+      <c r="D1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -434,6 +433,9 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -445,6 +447,9 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -456,6 +461,9 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -466,6 +474,9 @@
       </c>
       <c r="C5" t="s">
         <v>14</v>
+      </c>
+      <c r="D5">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -477,7 +488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12EE4578-8D9F-401E-A8EE-BA16FE291AEE}">
   <dimension ref="C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -485,7 +496,7 @@
   <sheetData>
     <row r="2" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/com/syntax/class35/Test.xlsx
+++ b/src/com/syntax/class35/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asghar Nazir\IdeaProjects\JavaBatch8\src\com\syntax\class35\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E74316-6E61-478D-91BE-72BF26E2BCDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682ED025-1B3E-49B1-A589-8680B2778250}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41595" yWindow="3915" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FirstPage" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>First Name</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Age</t>
+  </si>
+  <si>
+    <t>age</t>
   </si>
 </sst>
 </file>
@@ -395,21 +398,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -422,8 +428,17 @@
       <c r="D1" t="s">
         <v>16</v>
       </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -437,7 +452,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -451,7 +466,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -465,7 +480,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
